--- a/biology/Médecine/Processus_intra-jugulaire_de_l'os_temporal/Processus_intra-jugulaire_de_l'os_temporal.xlsx
+++ b/biology/Médecine/Processus_intra-jugulaire_de_l'os_temporal/Processus_intra-jugulaire_de_l'os_temporal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_intra-jugulaire_de_l%27os_temporal</t>
+          <t>Processus_intra-jugulaire_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le processus intra-jugulaire de l'os temporal (ou épine jugulaire de l’os temporal) est un petite épine osseuse sur le bord postérieur de la partie pétreuse de l'os temporal.
 Il est relié au processus intra-jugulaire de l'os occipital par un faisceau fibreux.
